--- a/Explicación de Regresion Lineal con Error cuadratico.xlsx
+++ b/Explicación de Regresion Lineal con Error cuadratico.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inmelingenieria-my.sharepoint.com/personal/juan_ochoa_inmel_co/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.ochoa\deepLearningBasicsPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{E4428760-FBA9-4FE4-9B16-90A909F73A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98E26CBE-E8F7-423A-9CFF-3BE96C2995F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB137F17-0D26-4687-8624-3D5B65868D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{486C9102-2813-4506-B452-6C0C51564476}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{486C9102-2813-4506-B452-6C0C51564476}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Intuición del costo" sheetId="1" r:id="rId1"/>
+    <sheet name="Pendiente de una Recta" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$11:$B$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Intuición del costo'!$A$11:$B$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>X</t>
   </si>
@@ -73,6 +74,18 @@
   <si>
     <t>J</t>
   </si>
+  <si>
+    <t>Recordar que la formula de la ecuación de una recta es</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>f w,b(x) = wx+b --&gt; esto es Y</t>
+  </si>
+  <si>
+    <t>Cuando w = 0 y b = 1.5 entonces "y" se mantiene igual a pesar de que la X varia.</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +125,14 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,19 +204,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,7 +334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$1</c:f>
+              <c:f>'Intuición del costo'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -415,7 +446,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:f>'Intuición del costo'!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -443,7 +474,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$1</c:f>
+              <c:f>'Intuición del costo'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -555,7 +586,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$4</c:f>
+              <c:f>'Intuición del costo'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -583,7 +614,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>'Intuición del costo'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -695,7 +726,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$4</c:f>
+              <c:f>'Intuición del costo'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1041,7 +1072,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$11</c:f>
+              <c:f>'Intuición del costo'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1153,7 +1184,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$A$12:$A$16</c:f>
+              <c:f>'Intuición del costo'!$A$12:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1187,7 +1218,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$11</c:f>
+              <c:f>'Intuición del costo'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1241,7 +1272,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$12:$B$16</c:f>
+              <c:f>'Intuición del costo'!$B$12:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2671,6 +2702,158 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>729880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407F4BD8-2C5B-9B56-F14B-A7C40F5A157E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5415643" y="4835071"/>
+          <a:ext cx="6880308" cy="3125000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123908</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>75047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9073CE3C-6DCF-4E22-AD56-27A7E9301955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4203700" y="0"/>
+          <a:ext cx="4219658" cy="1916547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA57B551-52E0-0291-6AC9-B45CC73A63C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4203700" y="1949879"/>
+          <a:ext cx="4260850" cy="1408858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2991,10 +3174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ED8B4B-1138-4696-9A38-64CD053B687A}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3020,7 +3203,7 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>0.2</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -3094,22 +3277,22 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <f>(1/(2*$G$2))*D5</f>
         <v>1.4933333333333334</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -3128,7 +3311,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>0.58333333333333326</v>
       </c>
       <c r="B13" s="3">
@@ -3158,6 +3341,78 @@
       <c r="B16" s="3">
         <v>4</v>
       </c>
+    </row>
+    <row r="26" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="10:17" x14ac:dyDescent="0.35">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:B16" xr:uid="{92ED8B4B-1138-4696-9A38-64CD053B687A}">
@@ -3171,4 +3426,157 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B12890D-FD73-4F8C-9610-9AADF1FE1F32}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="4.90625" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="3">
+        <f>(A2*B2)+C2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D7" si="0">(A3*B3)+C3</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>